--- a/data/trans_dic/P6905-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P6905-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1066,7 +1066,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_dic/P6905-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P6905-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,53%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,23%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>36,29%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,22%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,36%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>56,11%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>58,37%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,52%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,49%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,43%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>45,83%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,24%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 12,61</t>
+          <t>0,0; 37,02</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 7,93</t>
+          <t>7,85; 46,79</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 20,75</t>
+          <t>11,55; 74,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 14,51</t>
+          <t>0,0; 54,6</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 23,25</t>
+          <t>0,0; 43,43</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 26,42</t>
+          <t>16,29; 100,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 23,25</t>
+          <t>15,09; 87,46</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 10,53</t>
+          <t>4,61; 49,47</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 8,64</t>
+          <t>0,0; 31,92</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 6,36</t>
+          <t>14,96; 52,67</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 11,83</t>
+          <t>24,44; 72,81</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 6,36</t>
+          <t>6,16; 35,96</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,27%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,05%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,84%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,88%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,16%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>48,13%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>41,05%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,35%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,0%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,02%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,33%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,29%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 3,04</t>
+          <t>8,11; 29,32</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 3,48</t>
+          <t>14,81; 39,76</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 4,44</t>
+          <t>11,1; 36,99</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 3,36</t>
+          <t>5,5; 33,7</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 7,06</t>
+          <t>11,74; 50,06</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 7,32</t>
+          <t>29,96; 67,99</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 7,93</t>
+          <t>23,12; 65,3</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,59</t>
+          <t>19,78; 44,09</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,15</t>
+          <t>12,72; 29,98</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,39</t>
+          <t>22,98; 45,65</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,9</t>
+          <t>18,58; 40,49</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,48</t>
+          <t>14,7; 32,45</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,6%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,77%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,3%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,22%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>39,62%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>48,76%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,66%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,71%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,26%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,06%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,44%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,27%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,4</t>
+          <t>22,92; 38,67</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,23</t>
+          <t>15,35; 33,44</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,23</t>
+          <t>13,46; 31,58</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,71</t>
+          <t>14,52; 32,9</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 3,75</t>
+          <t>27,05; 53,16</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 3,24</t>
+          <t>36,51; 61,92</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 3,61</t>
+          <t>20,98; 46,4</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,3</t>
+          <t>26,68; 43,02</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,03</t>
+          <t>25,74; 39,23</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,33</t>
+          <t>25,59; 41,43</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,39</t>
+          <t>19,33; 33,64</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,74</t>
+          <t>22,99; 35,46</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,47%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,65%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,55%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,26%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>46,35%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,94%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>42,58%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>37,49%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,19%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,17%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,01%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,81%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,9</t>
+          <t>21,9; 41,31</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 2,62</t>
+          <t>20,62; 43,69</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,84</t>
+          <t>22,41; 40,06</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 3,24</t>
+          <t>9,44; 32,58</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 3,98</t>
+          <t>33,24; 61,75</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 3,82</t>
+          <t>20,07; 45,68</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 2,95</t>
+          <t>30,67; 54,94</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 2,15</t>
+          <t>23,1; 50,52</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,3</t>
+          <t>27,21; 43,25</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,57</t>
+          <t>23,29; 40,47</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,14</t>
+          <t>27,68; 42,61</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,3</t>
+          <t>20,48; 38,63</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>39,1%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,86%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,35%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,89%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>44,24%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>36,02%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>46,19%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>36,24%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>41,12%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,33%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>37,7%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,71%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,38</t>
+          <t>30,6; 47,78</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 2,42</t>
+          <t>15,19; 34,23</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 2,25</t>
+          <t>21,22; 42,03</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,88</t>
+          <t>19,58; 38,17</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 2,23</t>
+          <t>34,02; 55,29</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 3,19</t>
+          <t>23,1; 48,92</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 3,09</t>
+          <t>34,23; 59,91</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,27</t>
+          <t>26,68; 49,71</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,86</t>
+          <t>34,4; 47,74</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,39</t>
+          <t>22,33; 37,85</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,31</t>
+          <t>29,81; 46,47</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,76</t>
+          <t>26,54; 41,09</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,04%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,99%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,16%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,37%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>40,96%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>40,98%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>41,41%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,72%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,51%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,95%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,6%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,62%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,43</t>
+          <t>25,66; 34,46</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,61</t>
+          <t>21,08; 31,07</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,59</t>
+          <t>22,77; 32,58</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>17,67; 27,71</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,89</t>
+          <t>34,12; 48,05</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,97</t>
+          <t>33,92; 47,98</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,92</t>
+          <t>34,96; 48,84</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>29,66; 40,56</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>29,8; 37,02</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>28,2; 36,87</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>28,67; 36,51</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>25,3; 32,47</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P6905-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P6905-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>7,53%</t>
+          <t>14,61%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>23,23%</t>
+          <t>25,94%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>36,29%</t>
+          <t>23,97%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>16,22%</t>
+          <t>15,76%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>14,36%</t>
+          <t>26,38%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>56,11%</t>
+          <t>49,84%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>58,37%</t>
+          <t>44,6%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>18,52%</t>
+          <t>28,7%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>9,49%</t>
+          <t>18,01%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>31,43%</t>
+          <t>33,33%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>45,83%</t>
+          <t>31,26%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>17,24%</t>
+          <t>21,38%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 37,02</t>
+          <t>7,63; 24,88</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,85; 46,79</t>
+          <t>16,49; 38,56</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>11,55; 74,0</t>
+          <t>13,21; 37,12</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 54,6</t>
+          <t>6,94; 29,65</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 43,43</t>
+          <t>12,29; 44,37</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>16,29; 100,0</t>
+          <t>32,09; 67,8</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>15,09; 87,46</t>
+          <t>28,12; 65,41</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,61; 49,47</t>
+          <t>18,3; 39,89</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 31,92</t>
+          <t>11,01; 26,5</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>14,96; 52,67</t>
+          <t>24,85; 43,42</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>24,44; 72,81</t>
+          <t>21,47; 41,88</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>6,16; 35,96</t>
+          <t>14,55; 30,95</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>16,27%</t>
+          <t>29,6%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>27,05%</t>
+          <t>23,77%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>21,84%</t>
+          <t>21,3%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>15,88%</t>
+          <t>22,75%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>29,16%</t>
+          <t>39,62%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>48,13%</t>
+          <t>48,76%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>41,05%</t>
+          <t>32,66%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>30,35%</t>
+          <t>34,7%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>20,0%</t>
+          <t>32,26%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>34,02%</t>
+          <t>34,06%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>28,33%</t>
+          <t>25,44%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>22,29%</t>
+          <t>28,35%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>8,11; 29,32</t>
+          <t>22,92; 38,67</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>14,81; 39,76</t>
+          <t>15,35; 33,44</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>11,1; 36,99</t>
+          <t>13,46; 31,58</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,5; 33,7</t>
+          <t>14,82; 34,07</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>11,74; 50,06</t>
+          <t>27,05; 53,16</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>29,96; 67,99</t>
+          <t>36,51; 61,92</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>23,12; 65,3</t>
+          <t>20,98; 46,4</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>19,78; 44,09</t>
+          <t>26,9; 42,93</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>12,72; 29,98</t>
+          <t>25,74; 39,23</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>22,98; 45,65</t>
+          <t>25,59; 41,43</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>18,58; 40,49</t>
+          <t>19,33; 33,64</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>14,7; 32,45</t>
+          <t>22,87; 35,47</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>29,6%</t>
+          <t>30,47%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>23,77%</t>
+          <t>30,65%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>21,3%</t>
+          <t>30,55%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>22,22%</t>
+          <t>18,87%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>39,62%</t>
+          <t>46,35%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>48,76%</t>
+          <t>31,94%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>32,66%</t>
+          <t>42,58%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>34,71%</t>
+          <t>28,38%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>32,26%</t>
+          <t>35,19%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>34,06%</t>
+          <t>31,17%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>25,44%</t>
+          <t>35,01%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>28,27%</t>
+          <t>24,93%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>22,92; 38,67</t>
+          <t>21,9; 41,31</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>15,35; 33,44</t>
+          <t>20,62; 43,69</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>13,46; 31,58</t>
+          <t>22,41; 40,06</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>14,52; 32,9</t>
+          <t>9,26; 32,73</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>27,05; 53,16</t>
+          <t>33,24; 61,75</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>36,51; 61,92</t>
+          <t>20,07; 45,68</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>20,98; 46,4</t>
+          <t>30,67; 54,94</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>26,68; 43,02</t>
+          <t>9,18; 47,55</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>25,74; 39,23</t>
+          <t>27,21; 43,25</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>25,59; 41,43</t>
+          <t>23,29; 40,47</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>19,33; 33,64</t>
+          <t>27,68; 42,61</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>22,99; 35,46</t>
+          <t>10,97; 34,94</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>30,47%</t>
+          <t>39,1%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>30,65%</t>
+          <t>23,86%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>30,55%</t>
+          <t>31,35%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>19,26%</t>
+          <t>30,1%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>46,35%</t>
+          <t>44,24%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>31,94%</t>
+          <t>36,02%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>42,58%</t>
+          <t>46,19%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>37,49%</t>
+          <t>35,57%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>35,19%</t>
+          <t>41,12%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>31,17%</t>
+          <t>29,33%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>35,01%</t>
+          <t>37,7%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>29,81%</t>
+          <t>32,88%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>21,9; 41,31</t>
+          <t>30,6; 47,78</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>20,62; 43,69</t>
+          <t>15,19; 34,23</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>22,41; 40,06</t>
+          <t>21,22; 42,03</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>9,44; 32,58</t>
+          <t>20,43; 40,27</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>33,24; 61,75</t>
+          <t>34,02; 55,29</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>20,07; 45,68</t>
+          <t>23,1; 48,92</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>30,67; 54,94</t>
+          <t>34,23; 59,91</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>23,1; 50,52</t>
+          <t>26,41; 47,69</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>27,21; 43,25</t>
+          <t>34,4; 47,74</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>23,29; 40,47</t>
+          <t>22,33; 37,85</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>27,68; 42,61</t>
+          <t>29,81; 46,47</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>20,48; 38,63</t>
+          <t>26,37; 40,57</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>39,1%</t>
+          <t>30,04%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>23,86%</t>
+          <t>25,99%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>31,35%</t>
+          <t>27,16%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>28,89%</t>
+          <t>22,84%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>44,24%</t>
+          <t>40,96%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>36,02%</t>
+          <t>40,98%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>46,19%</t>
+          <t>41,41%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>36,24%</t>
+          <t>32,3%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>41,12%</t>
+          <t>33,51%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>29,33%</t>
+          <t>31,95%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>37,7%</t>
+          <t>32,6%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>32,71%</t>
+          <t>27,67%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>30,6; 47,78</t>
+          <t>25,66; 34,46</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>15,19; 34,23</t>
+          <t>21,08; 31,07</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>21,22; 42,03</t>
+          <t>22,77; 32,58</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>19,58; 38,17</t>
+          <t>17,97; 28,18</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>34,02; 55,29</t>
+          <t>34,12; 48,05</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>23,1; 48,92</t>
+          <t>33,92; 47,98</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>34,23; 59,91</t>
+          <t>34,96; 48,84</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>26,68; 49,71</t>
+          <t>23,11; 38,05</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>34,4; 47,74</t>
+          <t>29,8; 37,02</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>22,33; 37,85</t>
+          <t>28,2; 36,87</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>29,81; 46,47</t>
+          <t>28,67; 36,51</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>26,54; 41,09</t>
+          <t>22,88; 31,68</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>30,04%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>25,99%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>27,16%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>22,37%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>40,96%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>40,98%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>41,41%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>34,72%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>33,51%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>31,95%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>32,6%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>28,62%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>25,66; 34,46</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>21,08; 31,07</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>22,77; 32,58</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>17,67; 27,71</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>34,12; 48,05</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>33,92; 47,98</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>34,96; 48,84</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>29,66; 40,56</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>29,8; 37,02</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>28,2; 36,87</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>28,67; 36,51</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>25,3; 32,47</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P6905-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P6905-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,63; 24,88</t>
+          <t>7,66; 25,63</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>16,49; 38,56</t>
+          <t>17,0; 36,32</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>13,21; 37,12</t>
+          <t>13,39; 37,83</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6,94; 29,65</t>
+          <t>7,01; 30,46</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>12,29; 44,37</t>
+          <t>12,34; 43,37</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>32,09; 67,8</t>
+          <t>32,39; 67,67</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>28,12; 65,41</t>
+          <t>27,17; 63,65</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>18,3; 39,89</t>
+          <t>19,8; 38,9</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>11,01; 26,5</t>
+          <t>11,69; 26,77</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>24,85; 43,42</t>
+          <t>24,53; 43,78</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>21,47; 41,88</t>
+          <t>21,98; 42,33</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>14,55; 30,95</t>
+          <t>14,74; 30,04</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>22,92; 38,67</t>
+          <t>21,31; 37,54</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>15,35; 33,44</t>
+          <t>15,22; 33,48</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>13,46; 31,58</t>
+          <t>12,81; 31,37</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>14,82; 34,07</t>
+          <t>13,83; 33,62</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>27,05; 53,16</t>
+          <t>27,41; 53,42</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>36,51; 61,92</t>
+          <t>37,22; 61,68</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>20,98; 46,4</t>
+          <t>21,27; 46,55</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>26,9; 42,93</t>
+          <t>26,73; 43,65</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>25,74; 39,23</t>
+          <t>26,35; 39,51</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>25,59; 41,43</t>
+          <t>26,05; 41,83</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>19,33; 33,64</t>
+          <t>18,3; 34,12</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>22,87; 35,47</t>
+          <t>22,74; 35,22</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>21,9; 41,31</t>
+          <t>21,46; 40,55</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>20,62; 43,69</t>
+          <t>20,45; 42,76</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>22,41; 40,06</t>
+          <t>22,53; 39,98</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>9,26; 32,73</t>
+          <t>9,83; 31,74</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>33,24; 61,75</t>
+          <t>31,64; 61,05</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>20,07; 45,68</t>
+          <t>20,27; 45,54</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>30,67; 54,94</t>
+          <t>31,22; 54,63</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>9,18; 47,55</t>
+          <t>10,22; 46,56</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>27,21; 43,25</t>
+          <t>27,51; 43,57</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>23,29; 40,47</t>
+          <t>22,83; 40,16</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>27,68; 42,61</t>
+          <t>28,02; 42,37</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>10,97; 34,94</t>
+          <t>12,08; 34,99</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>30,6; 47,78</t>
+          <t>30,54; 47,94</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>15,19; 34,23</t>
+          <t>14,59; 33,7</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>21,22; 42,03</t>
+          <t>21,67; 42,47</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>20,43; 40,27</t>
+          <t>20,6; 40,29</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>34,02; 55,29</t>
+          <t>34,17; 55,15</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>23,1; 48,92</t>
+          <t>24,19; 49,98</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>34,23; 59,91</t>
+          <t>33,42; 59,84</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>26,41; 47,69</t>
+          <t>26,85; 47,09</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>34,4; 47,74</t>
+          <t>34,51; 47,7</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>22,33; 37,85</t>
+          <t>21,92; 37,36</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>29,81; 46,47</t>
+          <t>30,42; 46,29</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>26,37; 40,57</t>
+          <t>26,46; 40,61</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>25,66; 34,46</t>
+          <t>25,47; 34,65</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>21,08; 31,07</t>
+          <t>21,41; 31,37</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>22,77; 32,58</t>
+          <t>22,91; 32,71</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>17,97; 28,18</t>
+          <t>17,89; 29,25</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>34,12; 48,05</t>
+          <t>35,05; 47,36</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>33,92; 47,98</t>
+          <t>34,47; 48,33</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>34,96; 48,84</t>
+          <t>34,99; 48,37</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>23,11; 38,05</t>
+          <t>23,67; 38,34</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>29,8; 37,02</t>
+          <t>30,19; 37,43</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>28,2; 36,87</t>
+          <t>27,81; 36,27</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>28,67; 36,51</t>
+          <t>28,26; 36,42</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>22,88; 31,68</t>
+          <t>23,13; 31,49</t>
         </is>
       </c>
     </row>
@@ -1364,4 +1365,1212 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que su trabajo le afecta de manera que tiene dolores de cabeza</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>11590</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>19868</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>13103</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>11224</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>8506</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>17077</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>13342</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>15692</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>20096</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>36945</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>26445</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>26916</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>6074; 20334</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>13016; 27810</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>7320; 20681</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>4991; 21691</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>3979; 13982</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>11096; 23184</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>8128; 19042</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>10825; 21273</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>13043; 29866</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>27190; 48522</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>18592; 35803</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>18559; 37815</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>43207</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>21578</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>20659</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>25477</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>20920</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>30965</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>18141</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>34258</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>64127</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>52543</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>38800</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>59735</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>31102; 54807</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>13816; 30394</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>12426; 30423</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>15491; 37644</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>14471; 28206</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>23636; 39168</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>11815; 25860</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>26395; 43094</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>52376; 78533</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>40189; 64532</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>27909; 52037</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>47909; 74218</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>33503</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>24387</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>33584</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>10433</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>21568</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>16923</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>27569</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>27501</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>55071</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>41309</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>61153</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>37934</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>23589; 44586</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>16269; 34015</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>24765; 43954</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>5434; 17547</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>14724; 28406</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>10738; 24125</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>20214; 35373</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>9901; 45123</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>43047; 68172</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>30261; 53222</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>48951; 74009</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>18377; 53245</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>53592</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>18712</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>27718</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>30415</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>39174</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>23085</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>30521</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>36958</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>92767</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>41798</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>58239</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>67373</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>41856; 65707</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>11439; 26432</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>19155; 37546</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>20812; 40702</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>30255; 48839</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>15503; 32033</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>22086; 39541</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>27898; 48925</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>77862; 107605</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>31241; 53246</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>47004; 71511</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>54231; 83214</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>219</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>161</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>141892</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>84545</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>95064</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>77549</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>90168</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>88049</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>89574</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>114409</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>232061</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>172594</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>184638</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>191958</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>120280; 163652</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>69651; 102071</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>80193; 114490</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>60738; 99292</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>77154; 104241</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>74043; 103828</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>75682; 104613</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>83849; 135810</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>209046; 259159</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>150211; 195919</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>160012; 206249</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>160456; 218460</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>